--- a/Code/Results/Cases/Case_9_11/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_9_11/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9961976121811063</v>
+        <v>0.9010501354303528</v>
       </c>
       <c r="C2">
-        <v>0.1382221595626447</v>
+        <v>0.1709191143197728</v>
       </c>
       <c r="D2">
-        <v>0.08739579113863982</v>
+        <v>0.1007792380924144</v>
       </c>
       <c r="E2">
-        <v>0.08461383907601316</v>
+        <v>0.08973019696419726</v>
       </c>
       <c r="F2">
-        <v>1.252922079679138</v>
+        <v>1.131624751018848</v>
       </c>
       <c r="G2">
-        <v>0.9448046025060393</v>
+        <v>0.8130438814202705</v>
       </c>
       <c r="H2">
-        <v>0.00761201785907939</v>
+        <v>0.006469741450491673</v>
       </c>
       <c r="I2">
-        <v>0.009191408259072276</v>
+        <v>0.00631769770941748</v>
       </c>
       <c r="J2">
-        <v>0.6677937812964103</v>
+        <v>0.6133665646692492</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1082752808903891</v>
+        <v>0.2440570178792676</v>
       </c>
       <c r="M2">
-        <v>1.034792640914844</v>
+        <v>0.1790310549938354</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.1087206337215747</v>
       </c>
       <c r="O2">
-        <v>0.3441023668210832</v>
+        <v>1.019519023167362</v>
       </c>
       <c r="P2">
-        <v>1.267823170186645</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.3452930802563756</v>
+      </c>
+      <c r="R2">
+        <v>1.155190818024874</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8683973963661913</v>
+        <v>0.789013921688138</v>
       </c>
       <c r="C3">
-        <v>0.120242761138428</v>
+        <v>0.146292502909489</v>
       </c>
       <c r="D3">
-        <v>0.07691287609483055</v>
+        <v>0.08847095853909792</v>
       </c>
       <c r="E3">
-        <v>0.07549962536016608</v>
+        <v>0.08031519671991916</v>
       </c>
       <c r="F3">
-        <v>1.189396067944713</v>
+        <v>1.081120246125757</v>
       </c>
       <c r="G3">
-        <v>0.8979038187784454</v>
+        <v>0.7816847619529312</v>
       </c>
       <c r="H3">
-        <v>0.01041950232096805</v>
+        <v>0.008896478924766416</v>
       </c>
       <c r="I3">
-        <v>0.01210165290601983</v>
+        <v>0.008363699456817475</v>
       </c>
       <c r="J3">
-        <v>0.6500877148663733</v>
+        <v>0.5968927702377869</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.09754343177297642</v>
+        <v>0.2457226294471724</v>
       </c>
       <c r="M3">
-        <v>0.900296744623148</v>
+        <v>0.1716134959324407</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.09857753406279102</v>
       </c>
       <c r="O3">
-        <v>0.3012250239877616</v>
+        <v>0.8880595433053031</v>
       </c>
       <c r="P3">
-        <v>1.295195195123256</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.3023729194620586</v>
+      </c>
+      <c r="R3">
+        <v>1.186400615883109</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7896650376363539</v>
+        <v>0.719712651590072</v>
       </c>
       <c r="C4">
-        <v>0.10939664965818</v>
+        <v>0.131490527450012</v>
       </c>
       <c r="D4">
-        <v>0.07052478686608055</v>
+        <v>0.08098637552133425</v>
       </c>
       <c r="E4">
-        <v>0.06991179554288962</v>
+        <v>0.07454448905346212</v>
       </c>
       <c r="F4">
-        <v>1.150836981147272</v>
+        <v>1.050363687484101</v>
       </c>
       <c r="G4">
-        <v>0.8694750138281933</v>
+        <v>0.7627806096693348</v>
       </c>
       <c r="H4">
-        <v>0.01243545347654035</v>
+        <v>0.01064321581246932</v>
       </c>
       <c r="I4">
-        <v>0.01420096529268111</v>
+        <v>0.009865059090306438</v>
       </c>
       <c r="J4">
-        <v>0.6394749763209688</v>
+        <v>0.586739671117698</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.09093133111259988</v>
+        <v>0.246631471460681</v>
       </c>
       <c r="M4">
-        <v>0.8178146217662459</v>
+        <v>0.1676997165225664</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.09231791255778177</v>
       </c>
       <c r="O4">
-        <v>0.2749330692975107</v>
+        <v>0.8073195722529078</v>
       </c>
       <c r="P4">
-        <v>1.312377206850769</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.276040750659071</v>
+      </c>
+      <c r="R4">
+        <v>1.20595081683679</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7565610006413976</v>
+        <v>0.6904735733363907</v>
       </c>
       <c r="C5">
-        <v>0.1053738260859944</v>
+        <v>0.1259205434860888</v>
       </c>
       <c r="D5">
-        <v>0.06803773438966942</v>
+        <v>0.07806012034856025</v>
       </c>
       <c r="E5">
-        <v>0.06765964580226225</v>
+        <v>0.07221792539666083</v>
       </c>
       <c r="F5">
-        <v>1.134263033359318</v>
+        <v>1.037012970662325</v>
       </c>
       <c r="G5">
-        <v>0.8570091680308991</v>
+        <v>0.7543069121743287</v>
       </c>
       <c r="H5">
-        <v>0.0133324615220054</v>
+        <v>0.01142125397484882</v>
       </c>
       <c r="I5">
-        <v>0.01522279617787881</v>
+        <v>0.01063675544700171</v>
       </c>
       <c r="J5">
-        <v>0.6347182489583219</v>
+        <v>0.5821360304921512</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.08820471556702358</v>
+        <v>0.2466802382889952</v>
       </c>
       <c r="M5">
-        <v>0.7840296583278814</v>
+        <v>0.1660772457923194</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.08973428835547992</v>
       </c>
       <c r="O5">
-        <v>0.2642243816594778</v>
+        <v>0.7742254924556562</v>
       </c>
       <c r="P5">
-        <v>1.318800121892654</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.265312672204594</v>
+      </c>
+      <c r="R5">
+        <v>1.213491202594621</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7498983784691404</v>
+        <v>0.6845493225682731</v>
       </c>
       <c r="C6">
-        <v>0.105140958300467</v>
+        <v>0.1254744028477148</v>
       </c>
       <c r="D6">
-        <v>0.06775408475402855</v>
+        <v>0.07770581739713833</v>
       </c>
       <c r="E6">
-        <v>0.06731492352415458</v>
+        <v>0.07186031066378362</v>
       </c>
       <c r="F6">
-        <v>1.130337231858881</v>
+        <v>1.033730283365948</v>
       </c>
       <c r="G6">
-        <v>0.853763045988444</v>
+        <v>0.7518647273363257</v>
       </c>
       <c r="H6">
-        <v>0.01349148704614586</v>
+        <v>0.01155909830772636</v>
       </c>
       <c r="I6">
-        <v>0.01551512785927756</v>
+        <v>0.01090003923640381</v>
       </c>
       <c r="J6">
-        <v>0.6333283180774174</v>
+        <v>0.58081413747189</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.08772073909856459</v>
+        <v>0.2463297873506001</v>
       </c>
       <c r="M6">
-        <v>0.7781898050468783</v>
+        <v>0.1655877392862912</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.08927561735222866</v>
       </c>
       <c r="O6">
-        <v>0.2624459516687914</v>
+        <v>0.7685104062116466</v>
       </c>
       <c r="P6">
-        <v>1.319054872078137</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.2635309312083294</v>
+      </c>
+      <c r="R6">
+        <v>1.21411490773383</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.786035373767163</v>
+        <v>0.7156907327454007</v>
       </c>
       <c r="C7">
-        <v>0.1105250370491291</v>
+        <v>0.1323566366591251</v>
       </c>
       <c r="D7">
-        <v>0.07084321468317256</v>
+        <v>0.08153973639529255</v>
       </c>
       <c r="E7">
-        <v>0.06996139778645372</v>
+        <v>0.0746547724792137</v>
       </c>
       <c r="F7">
-        <v>1.147390985083142</v>
+        <v>1.045491538366541</v>
       </c>
       <c r="G7">
-        <v>0.8660799008828519</v>
+        <v>0.7629980467000195</v>
       </c>
       <c r="H7">
-        <v>0.01246241689034946</v>
+        <v>0.01067500899668792</v>
       </c>
       <c r="I7">
-        <v>0.01451922501346115</v>
+        <v>0.01022522909616175</v>
       </c>
       <c r="J7">
-        <v>0.637762981983272</v>
+        <v>0.5790692582363164</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.0908105029928592</v>
+        <v>0.2452699729754073</v>
       </c>
       <c r="M7">
-        <v>0.8167260307907043</v>
+        <v>0.1667553977902756</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.09217317898863087</v>
       </c>
       <c r="O7">
-        <v>0.2747869101401861</v>
+        <v>0.8051284982876723</v>
       </c>
       <c r="P7">
-        <v>1.310247502704328</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.2757395248957053</v>
+      </c>
+      <c r="R7">
+        <v>1.203509294500691</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9479249213434287</v>
+        <v>0.8562350392543863</v>
       </c>
       <c r="C8">
-        <v>0.1335574931527219</v>
+        <v>0.1628920511386553</v>
       </c>
       <c r="D8">
-        <v>0.08423963222932684</v>
+        <v>0.09779064028640505</v>
       </c>
       <c r="E8">
-        <v>0.08157572157327664</v>
+        <v>0.08679988029740215</v>
       </c>
       <c r="F8">
-        <v>1.226660414070793</v>
+        <v>1.104448692392864</v>
       </c>
       <c r="G8">
-        <v>0.9242840620534025</v>
+        <v>0.8090325160989096</v>
       </c>
       <c r="H8">
-        <v>0.008533562989794713</v>
+        <v>0.007287493334069806</v>
       </c>
       <c r="I8">
-        <v>0.01049044590600623</v>
+        <v>0.007405226931302522</v>
       </c>
       <c r="J8">
-        <v>0.6594604269354107</v>
+        <v>0.5857572119381587</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1044673063598083</v>
+        <v>0.2422306135931827</v>
       </c>
       <c r="M8">
-        <v>0.9875404895074382</v>
+        <v>0.1744251303148125</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.1050248144036203</v>
       </c>
       <c r="O8">
-        <v>0.3293057953688105</v>
+        <v>0.9695456702074807</v>
       </c>
       <c r="P8">
-        <v>1.274326811754861</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.3299642532588507</v>
+      </c>
+      <c r="R8">
+        <v>1.161112672662085</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.269330079597864</v>
+        <v>1.135783764429533</v>
       </c>
       <c r="C9">
-        <v>0.178306104084939</v>
+        <v>0.224449874230686</v>
       </c>
       <c r="D9">
-        <v>0.1103080570695454</v>
+        <v>0.1287801621447642</v>
       </c>
       <c r="E9">
-        <v>0.1043202785532955</v>
+        <v>0.1103655633791121</v>
       </c>
       <c r="F9">
-        <v>1.391809285603443</v>
+        <v>1.234007441128369</v>
       </c>
       <c r="G9">
-        <v>1.047477351498145</v>
+        <v>0.8959018161119161</v>
       </c>
       <c r="H9">
-        <v>0.003258725580689625</v>
+        <v>0.002743731586958065</v>
       </c>
       <c r="I9">
-        <v>0.004751734226452697</v>
+        <v>0.003369818723692575</v>
       </c>
       <c r="J9">
-        <v>0.7071541381844071</v>
+        <v>0.6229917331013297</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1312794973836517</v>
+        <v>0.2384142241386087</v>
       </c>
       <c r="M9">
-        <v>1.324912553290091</v>
+        <v>0.196872603932853</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.130275176839703</v>
       </c>
       <c r="O9">
-        <v>0.4366389863351685</v>
+        <v>1.297387762504314</v>
       </c>
       <c r="P9">
-        <v>1.210830756724654</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.4371506953086879</v>
+      </c>
+      <c r="R9">
+        <v>1.08705164342479</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.497796432169594</v>
+        <v>1.329633684179186</v>
       </c>
       <c r="C10">
-        <v>0.2117038296567699</v>
+        <v>0.2678594876674936</v>
       </c>
       <c r="D10">
-        <v>0.1266897540393188</v>
+        <v>0.1498927751958945</v>
       </c>
       <c r="E10">
-        <v>0.1158095180669179</v>
+        <v>0.1226531953204386</v>
       </c>
       <c r="F10">
-        <v>1.494078355548311</v>
+        <v>1.301924730762224</v>
       </c>
       <c r="G10">
-        <v>1.123986034515369</v>
+        <v>0.967590637136567</v>
       </c>
       <c r="H10">
-        <v>0.001349536488153724</v>
+        <v>0.001159111309644079</v>
       </c>
       <c r="I10">
-        <v>0.002515294995518502</v>
+        <v>0.002009162717618196</v>
       </c>
       <c r="J10">
-        <v>0.7354840470194404</v>
+        <v>0.6100566191927186</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.1430549387849496</v>
+        <v>0.2306754028175177</v>
       </c>
       <c r="M10">
-        <v>1.567289405701388</v>
+        <v>0.2116766924925741</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.1408206448238474</v>
       </c>
       <c r="O10">
-        <v>0.5057725730070075</v>
+        <v>1.525435704306375</v>
       </c>
       <c r="P10">
-        <v>1.157213311110802</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.5051241471429506</v>
+      </c>
+      <c r="R10">
+        <v>1.025277684286323</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.549641259487686</v>
+        <v>1.373919785242435</v>
       </c>
       <c r="C11">
-        <v>0.2169690940240514</v>
+        <v>0.2668138782829033</v>
       </c>
       <c r="D11">
-        <v>0.1074148014332366</v>
+        <v>0.1310877433684254</v>
       </c>
       <c r="E11">
-        <v>0.07961004879219757</v>
+        <v>0.08565867406267103</v>
       </c>
       <c r="F11">
-        <v>1.362550144494776</v>
+        <v>1.164781284608409</v>
       </c>
       <c r="G11">
-        <v>1.02742565682027</v>
+        <v>0.9228803852845289</v>
       </c>
       <c r="H11">
-        <v>0.01993531258495551</v>
+        <v>0.0197896056477127</v>
       </c>
       <c r="I11">
-        <v>0.002603932617061488</v>
+        <v>0.00239655806520922</v>
       </c>
       <c r="J11">
-        <v>0.6825025318484279</v>
+        <v>0.505022096560964</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.09121045156181395</v>
+        <v>0.2050903058184339</v>
       </c>
       <c r="M11">
-        <v>1.618713797037259</v>
+        <v>0.193148776420184</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.08950738076628895</v>
       </c>
       <c r="O11">
-        <v>0.451249449293897</v>
+        <v>1.561796997741993</v>
       </c>
       <c r="P11">
-        <v>1.067968545498129</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.4486442993495601</v>
+      </c>
+      <c r="R11">
+        <v>0.9562054329913536</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.549577593107756</v>
+        <v>1.377283913199591</v>
       </c>
       <c r="C12">
-        <v>0.2122855584849503</v>
+        <v>0.2558880711991094</v>
       </c>
       <c r="D12">
-        <v>0.08872736826423022</v>
+        <v>0.1107228663244513</v>
       </c>
       <c r="E12">
-        <v>0.0537230586168107</v>
+        <v>0.05859665165288241</v>
       </c>
       <c r="F12">
-        <v>1.239310577559991</v>
+        <v>1.050526676933529</v>
       </c>
       <c r="G12">
-        <v>0.9376410862035414</v>
+        <v>0.8628905839842815</v>
       </c>
       <c r="H12">
-        <v>0.05879637222587775</v>
+        <v>0.05864937146999694</v>
       </c>
       <c r="I12">
-        <v>0.002543346624264586</v>
+        <v>0.002365245283621142</v>
       </c>
       <c r="J12">
-        <v>0.6355421120765641</v>
+        <v>0.4475390874187468</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.0606060467971119</v>
+        <v>0.1885748746222653</v>
       </c>
       <c r="M12">
-        <v>1.610890070938865</v>
+        <v>0.1771794465409542</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.05969628726189313</v>
       </c>
       <c r="O12">
-        <v>0.3937331578748058</v>
+        <v>1.548688773845527</v>
       </c>
       <c r="P12">
-        <v>1.01563676910412</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.3904478259119486</v>
+      </c>
+      <c r="R12">
+        <v>0.92433906011426</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.504415882543128</v>
+        <v>1.346685032275559</v>
       </c>
       <c r="C13">
-        <v>0.2015849843483863</v>
+        <v>0.2397507032117829</v>
       </c>
       <c r="D13">
-        <v>0.07008359383694795</v>
+        <v>0.08847632969806796</v>
       </c>
       <c r="E13">
-        <v>0.03445921465094415</v>
+        <v>0.03791406347829884</v>
       </c>
       <c r="F13">
-        <v>1.110523636376726</v>
+        <v>0.9451020966517376</v>
       </c>
       <c r="G13">
-        <v>0.8428970733841652</v>
+        <v>0.77685106575872</v>
       </c>
       <c r="H13">
-        <v>0.11492614819187</v>
+        <v>0.1147300851270927</v>
       </c>
       <c r="I13">
-        <v>0.00273747424049553</v>
+        <v>0.002460721144697864</v>
       </c>
       <c r="J13">
-        <v>0.5879104291613402</v>
+        <v>0.4231984308095846</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.04436837958797435</v>
+        <v>0.1765842969060216</v>
       </c>
       <c r="M13">
-        <v>1.555984101378613</v>
+        <v>0.1618565723808665</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.04443331370239978</v>
       </c>
       <c r="O13">
-        <v>0.3310140988947694</v>
+        <v>1.498803962501796</v>
       </c>
       <c r="P13">
-        <v>0.9845947551303009</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.3281763640081365</v>
+      </c>
+      <c r="R13">
+        <v>0.9141524581503955</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.451616671673605</v>
+        <v>1.308982070176967</v>
       </c>
       <c r="C14">
-        <v>0.1917973660407739</v>
+        <v>0.2264860081671998</v>
       </c>
       <c r="D14">
-        <v>0.0574727946922664</v>
+        <v>0.07274893526656001</v>
       </c>
       <c r="E14">
-        <v>0.02503416825947635</v>
+        <v>0.02753032086901985</v>
       </c>
       <c r="F14">
-        <v>1.018457313796432</v>
+        <v>0.8745810519661603</v>
       </c>
       <c r="G14">
-        <v>0.7744875578263901</v>
+        <v>0.7067951355894309</v>
       </c>
       <c r="H14">
-        <v>0.1646428411303873</v>
+        <v>0.164383678496776</v>
       </c>
       <c r="I14">
-        <v>0.003105827322515964</v>
+        <v>0.002706609021255524</v>
       </c>
       <c r="J14">
-        <v>0.5542821762399655</v>
+        <v>0.4178533382015104</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.04156911242068606</v>
+        <v>0.1697777415294048</v>
       </c>
       <c r="M14">
-        <v>1.496312658166971</v>
+        <v>0.1513564741376392</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.04232751610531515</v>
       </c>
       <c r="O14">
-        <v>0.2856398178465867</v>
+        <v>1.447023162696638</v>
       </c>
       <c r="P14">
-        <v>0.9731413668989459</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.283500865756281</v>
+      </c>
+      <c r="R14">
+        <v>0.9160444789685211</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.428040315648275</v>
+        <v>1.291322426031854</v>
       </c>
       <c r="C15">
-        <v>0.1886173668258095</v>
+        <v>0.2225697338470951</v>
       </c>
       <c r="D15">
-        <v>0.05432437605575302</v>
+        <v>0.06857686207771252</v>
       </c>
       <c r="E15">
-        <v>0.0232356266403988</v>
+        <v>0.02550897090800586</v>
       </c>
       <c r="F15">
-        <v>0.9935015531154789</v>
+        <v>0.8572912258395604</v>
       </c>
       <c r="G15">
-        <v>0.7555396686827862</v>
+        <v>0.6845857575104475</v>
       </c>
       <c r="H15">
-        <v>0.1773222025809673</v>
+        <v>0.1770314778098339</v>
       </c>
       <c r="I15">
-        <v>0.003395870706038195</v>
+        <v>0.002953429561986631</v>
       </c>
       <c r="J15">
-        <v>0.5453445761046112</v>
+        <v>0.4210973083570124</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.0419190854300604</v>
+        <v>0.1685582327665784</v>
       </c>
       <c r="M15">
-        <v>1.471719373134363</v>
+        <v>0.1486036317227679</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.04286652161798088</v>
       </c>
       <c r="O15">
-        <v>0.2731976000894178</v>
+        <v>1.426234731982703</v>
       </c>
       <c r="P15">
-        <v>0.9734281644750702</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.2713872998238784</v>
+      </c>
+      <c r="R15">
+        <v>0.9193591092262601</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.337834029934982</v>
+        <v>1.21973031957279</v>
       </c>
       <c r="C16">
-        <v>0.1772852776278739</v>
+        <v>0.2114420935215549</v>
       </c>
       <c r="D16">
-        <v>0.05179046870215132</v>
+        <v>0.06353262193731268</v>
       </c>
       <c r="E16">
-        <v>0.02284441482545141</v>
+        <v>0.02507930626276611</v>
       </c>
       <c r="F16">
-        <v>0.9758772602836387</v>
+        <v>0.8603608008358776</v>
       </c>
       <c r="G16">
-        <v>0.7412458366527517</v>
+        <v>0.6467937633046006</v>
       </c>
       <c r="H16">
-        <v>0.1654543982884036</v>
+        <v>0.1649994543638655</v>
       </c>
       <c r="I16">
-        <v>0.004373969602930572</v>
+        <v>0.003610237709064101</v>
       </c>
       <c r="J16">
-        <v>0.5422766405628039</v>
+        <v>0.4647345278873871</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.04066525368297924</v>
+        <v>0.1742235738801448</v>
       </c>
       <c r="M16">
-        <v>1.379196268484748</v>
+        <v>0.1481810860702701</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.04188430777495267</v>
       </c>
       <c r="O16">
-        <v>0.2581328495729913</v>
+        <v>1.349343704688891</v>
       </c>
       <c r="P16">
-        <v>0.9998473672284298</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.2577038845519226</v>
+      </c>
+      <c r="R16">
+        <v>0.9439453648784841</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.296571576944046</v>
+        <v>1.183566317800313</v>
       </c>
       <c r="C17">
-        <v>0.1738454119144706</v>
+        <v>0.2094954694923103</v>
       </c>
       <c r="D17">
-        <v>0.05632688978115397</v>
+        <v>0.06782366280545915</v>
       </c>
       <c r="E17">
-        <v>0.02681195718817531</v>
+        <v>0.02940178112941982</v>
       </c>
       <c r="F17">
-        <v>1.01044110306897</v>
+        <v>0.8984655915673301</v>
       </c>
       <c r="G17">
-        <v>0.7660717904608276</v>
+        <v>0.6574933884166825</v>
       </c>
       <c r="H17">
-        <v>0.1281601846917511</v>
+        <v>0.1276125624562781</v>
       </c>
       <c r="I17">
-        <v>0.004981332030748575</v>
+        <v>0.004034008547054491</v>
       </c>
       <c r="J17">
-        <v>0.5575796341344557</v>
+        <v>0.4982726686683776</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.03972520091346876</v>
+        <v>0.1823043985339865</v>
       </c>
       <c r="M17">
-        <v>1.339915468668295</v>
+        <v>0.1529060397251172</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.04084208243228904</v>
       </c>
       <c r="O17">
-        <v>0.2700542755051529</v>
+        <v>1.316066624458188</v>
       </c>
       <c r="P17">
-        <v>1.025799842383639</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.2702320901815938</v>
+      </c>
+      <c r="R17">
+        <v>0.9630598342744574</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.295080020562409</v>
+        <v>1.17778842787618</v>
       </c>
       <c r="C18">
-        <v>0.1757790946845716</v>
+        <v>0.2149250996790073</v>
       </c>
       <c r="D18">
-        <v>0.06811396083856636</v>
+        <v>0.08089197677150395</v>
       </c>
       <c r="E18">
-        <v>0.03854220747620296</v>
+        <v>0.04184406787697981</v>
       </c>
       <c r="F18">
-        <v>1.098702567232152</v>
+        <v>0.9786376798372487</v>
       </c>
       <c r="G18">
-        <v>0.8313629837691394</v>
+        <v>0.7074282743349016</v>
       </c>
       <c r="H18">
-        <v>0.075353283753131</v>
+        <v>0.07479100186233723</v>
       </c>
       <c r="I18">
-        <v>0.004909796723751469</v>
+        <v>0.003861827809570784</v>
       </c>
       <c r="J18">
-        <v>0.5923375618893516</v>
+        <v>0.5365589503895194</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.0465361032927305</v>
+        <v>0.1949164985559193</v>
       </c>
       <c r="M18">
-        <v>1.342053070241064</v>
+        <v>0.1638640442862567</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.04721321593613048</v>
       </c>
       <c r="O18">
-        <v>0.3083693248162618</v>
+        <v>1.319380737621145</v>
       </c>
       <c r="P18">
-        <v>1.059396230664252</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.3088670092642829</v>
+      </c>
+      <c r="R18">
+        <v>0.9838827182831373</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.31950693628221</v>
+        <v>1.191958573183769</v>
       </c>
       <c r="C19">
-        <v>0.1841634332203199</v>
+        <v>0.2287890124735696</v>
       </c>
       <c r="D19">
-        <v>0.08679927045881186</v>
+        <v>0.1020137365332516</v>
       </c>
       <c r="E19">
-        <v>0.06117412383342469</v>
+        <v>0.06550072460852618</v>
       </c>
       <c r="F19">
-        <v>1.223591382622388</v>
+        <v>1.08765414797881</v>
       </c>
       <c r="G19">
-        <v>0.9226750004088728</v>
+        <v>0.7810732735244557</v>
       </c>
       <c r="H19">
-        <v>0.02959192720182813</v>
+        <v>0.02909170162401153</v>
       </c>
       <c r="I19">
-        <v>0.00484500671069199</v>
+        <v>0.00388601735251104</v>
       </c>
       <c r="J19">
-        <v>0.6391033989337274</v>
+        <v>0.5783111228966078</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.07036513824663615</v>
+        <v>0.2098527223217772</v>
       </c>
       <c r="M19">
-        <v>1.37603051214171</v>
+        <v>0.1786030962160723</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.07030059827688007</v>
       </c>
       <c r="O19">
-        <v>0.3682694266828506</v>
+        <v>1.351723400983616</v>
       </c>
       <c r="P19">
-        <v>1.100961816832172</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.3689329622013062</v>
+      </c>
+      <c r="R19">
+        <v>1.008346883263396</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.427387171462328</v>
+        <v>1.272202796825241</v>
       </c>
       <c r="C20">
-        <v>0.2065830624516991</v>
+        <v>0.2618693062297837</v>
       </c>
       <c r="D20">
-        <v>0.1233467500288583</v>
+        <v>0.1444365975759467</v>
       </c>
       <c r="E20">
-        <v>0.1128078045205996</v>
+        <v>0.1191982213754699</v>
       </c>
       <c r="F20">
-        <v>1.4561951909442</v>
+        <v>1.28066243921576</v>
       </c>
       <c r="G20">
-        <v>1.093105013648241</v>
+        <v>0.9276317269126793</v>
       </c>
       <c r="H20">
-        <v>0.00174135768689121</v>
+        <v>0.001469659199537343</v>
       </c>
       <c r="I20">
-        <v>0.003838467860163064</v>
+        <v>0.003268215679839592</v>
       </c>
       <c r="J20">
-        <v>0.7225653079371597</v>
+        <v>0.6293735709719783</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.1393639140057843</v>
+        <v>0.2314486684761725</v>
       </c>
       <c r="M20">
-        <v>1.501179984664986</v>
+        <v>0.2062918940252203</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.1375832875109637</v>
       </c>
       <c r="O20">
-        <v>0.4871579903609558</v>
+        <v>1.467564500318304</v>
       </c>
       <c r="P20">
-        <v>1.164559714852793</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.4874026887965499</v>
+      </c>
+      <c r="R20">
+        <v>1.039233413748615</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.612899816479768</v>
+        <v>1.413520074061921</v>
       </c>
       <c r="C21">
-        <v>0.2340754802443996</v>
+        <v>0.2911283225582508</v>
       </c>
       <c r="D21">
-        <v>0.1408935333496402</v>
+        <v>0.1711895536953989</v>
       </c>
       <c r="E21">
-        <v>0.1299914800132385</v>
+        <v>0.1385932762543369</v>
       </c>
       <c r="F21">
-        <v>1.569581821024428</v>
+        <v>1.329369359405177</v>
       </c>
       <c r="G21">
-        <v>1.17801958491718</v>
+        <v>1.068856351966176</v>
       </c>
       <c r="H21">
-        <v>0.0004345940781758095</v>
+        <v>0.0003741332426152599</v>
       </c>
       <c r="I21">
-        <v>0.002483730975161969</v>
+        <v>0.002468566342822776</v>
       </c>
       <c r="J21">
-        <v>0.757541914087426</v>
+        <v>0.5294812495098569</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.1606984244303789</v>
+        <v>0.2238834754924106</v>
       </c>
       <c r="M21">
-        <v>1.698467443720574</v>
+        <v>0.2162210559841853</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.157170313305528</v>
       </c>
       <c r="O21">
-        <v>0.5561457957038272</v>
+        <v>1.630188215613913</v>
       </c>
       <c r="P21">
-        <v>1.138069815963334</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.5523368439021397</v>
+      </c>
+      <c r="R21">
+        <v>0.9892689156943852</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.735744371187991</v>
+        <v>1.506142040686086</v>
       </c>
       <c r="C22">
-        <v>0.2500665359556962</v>
+        <v>0.3071014951538587</v>
       </c>
       <c r="D22">
-        <v>0.1502992719995291</v>
+        <v>0.1869670637151302</v>
       </c>
       <c r="E22">
-        <v>0.1384102349039402</v>
+        <v>0.1485235762416757</v>
       </c>
       <c r="F22">
-        <v>1.638198274223697</v>
+        <v>1.353422772023634</v>
       </c>
       <c r="G22">
-        <v>1.230739988025107</v>
+        <v>1.16843836833209</v>
       </c>
       <c r="H22">
-        <v>8.176380126778682E-05</v>
+        <v>7.793044226844792E-05</v>
       </c>
       <c r="I22">
-        <v>0.001683283794745805</v>
+        <v>0.001836631333397953</v>
       </c>
       <c r="J22">
-        <v>0.7790685091923564</v>
+        <v>0.4653647144003372</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.170764483131542</v>
+        <v>0.2184056397400767</v>
       </c>
       <c r="M22">
-        <v>1.825430701384136</v>
+        <v>0.2222719185987003</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.1661088188541271</v>
       </c>
       <c r="O22">
-        <v>0.5962216845368999</v>
+        <v>1.732175645175914</v>
       </c>
       <c r="P22">
-        <v>1.119669183120777</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.5894038562424768</v>
+      </c>
+      <c r="R22">
+        <v>0.9558821310719807</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.674079227853298</v>
+        <v>1.462230316619781</v>
       </c>
       <c r="C23">
-        <v>0.2400510485382625</v>
+        <v>0.2979611764019694</v>
       </c>
       <c r="D23">
-        <v>0.1448430196938375</v>
+        <v>0.1773749802514715</v>
       </c>
       <c r="E23">
-        <v>0.1338146158103513</v>
+        <v>0.1429281121074411</v>
       </c>
       <c r="F23">
-        <v>1.60528635780355</v>
+        <v>1.348459742518457</v>
       </c>
       <c r="G23">
-        <v>1.206327826749217</v>
+        <v>1.108879436250717</v>
       </c>
       <c r="H23">
-        <v>0.0002326792714930637</v>
+        <v>0.0002041395170027105</v>
       </c>
       <c r="I23">
-        <v>0.001752878398515456</v>
+        <v>0.001764699282437832</v>
       </c>
       <c r="J23">
-        <v>0.7694574073694014</v>
+        <v>0.5121939163243781</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.165489720530374</v>
+        <v>0.2228690266831421</v>
       </c>
       <c r="M23">
-        <v>1.758416558818396</v>
+        <v>0.2208902817984892</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.1615018834457658</v>
       </c>
       <c r="O23">
-        <v>0.5748244347937401</v>
+        <v>1.681675489191463</v>
       </c>
       <c r="P23">
-        <v>1.131778171829119</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.5700589333230326</v>
+      </c>
+      <c r="R23">
+        <v>0.9766309766265842</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.434497370262505</v>
+        <v>1.27789831486848</v>
       </c>
       <c r="C24">
-        <v>0.2050279530663914</v>
+        <v>0.2606228623462243</v>
       </c>
       <c r="D24">
-        <v>0.1250130294147311</v>
+        <v>0.1463320723538857</v>
       </c>
       <c r="E24">
-        <v>0.1166594777251504</v>
+        <v>0.123173234631313</v>
       </c>
       <c r="F24">
-        <v>1.476323248574516</v>
+        <v>1.298565103098369</v>
       </c>
       <c r="G24">
-        <v>1.109333739052701</v>
+        <v>0.9407098448785831</v>
       </c>
       <c r="H24">
-        <v>0.001550052800781243</v>
+        <v>0.001286200474646115</v>
       </c>
       <c r="I24">
-        <v>0.00329651021911026</v>
+        <v>0.002635803759222455</v>
       </c>
       <c r="J24">
-        <v>0.7308519597307139</v>
+        <v>0.6374274723909252</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.1454223963969383</v>
+        <v>0.2346543881266001</v>
       </c>
       <c r="M24">
-        <v>1.5043974152114</v>
+        <v>0.2094320891944967</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.14353738834442</v>
       </c>
       <c r="O24">
-        <v>0.4940891594304944</v>
+        <v>1.470735840941217</v>
       </c>
       <c r="P24">
-        <v>1.174985009902613</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.4943697685177213</v>
+      </c>
+      <c r="R24">
+        <v>1.046349088734434</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.176651190913105</v>
+        <v>1.056290392491093</v>
       </c>
       <c r="C25">
-        <v>0.1681739872190349</v>
+        <v>0.2104456721024945</v>
       </c>
       <c r="D25">
-        <v>0.1038498148380427</v>
+        <v>0.1206409199782144</v>
       </c>
       <c r="E25">
-        <v>0.09829566504344811</v>
+        <v>0.1040235230980038</v>
       </c>
       <c r="F25">
-        <v>1.34083947408314</v>
+        <v>1.195996711697489</v>
       </c>
       <c r="G25">
-        <v>1.007924352813973</v>
+        <v>0.862341273378064</v>
       </c>
       <c r="H25">
-        <v>0.004418892936929097</v>
+        <v>0.003732364012491884</v>
       </c>
       <c r="I25">
-        <v>0.006494978229857118</v>
+        <v>0.004784529168274432</v>
       </c>
       <c r="J25">
-        <v>0.6910390535384039</v>
+        <v>0.618796002447553</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1238767518144428</v>
+        <v>0.2385926460387395</v>
       </c>
       <c r="M25">
-        <v>1.232252225267757</v>
+        <v>0.189350083715162</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.123358235014571</v>
       </c>
       <c r="O25">
-        <v>0.4075296331911602</v>
+        <v>1.209174110014629</v>
       </c>
       <c r="P25">
-        <v>1.223898607697691</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>0.4083264484794782</v>
+      </c>
+      <c r="R25">
+        <v>1.105102402457167</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
